--- a/xlsx/彭博商业周刊_intext.xlsx
+++ b/xlsx/彭博商业周刊_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>彭博商业周刊</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%9C%89%E9%99%90%E5%90%88%E5%A4%A5%E4%BC%81%E6%A5%AD</t>
   </si>
   <si>
-    <t>彭博有限合夥企業</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_彭博商业周刊</t>
+    <t>彭博有限合夥企业</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_彭博商业周刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6%E6%96%87%E5%8C%96</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E5%91%A8%E5%88%8A_(%E8%87%BA%E7%81%A3)</t>
   </si>
   <si>
-    <t>商業周刊 (臺灣)</t>
+    <t>商业周刊 (台湾)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E6%96%B0%E9%97%BB%E7%A4%BE</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%96%87</t>
@@ -83,9 +83,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6</t>
   </si>
   <si>
@@ -125,7 +122,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E5%8D%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>彭博電視</t>
+    <t>彭博电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Archive.is</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E9%9B%BB%E5%AD%90%E5%A0%B1</t>
   </si>
   <si>
-    <t>聯合電子報</t>
+    <t>联合电子报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Twitter</t>
@@ -828,7 +825,7 @@
         <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G11" t="n">
         <v>7</v>
@@ -854,10 +851,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -883,10 +880,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -912,10 +909,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -941,10 +938,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -970,10 +967,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -999,10 +996,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1028,10 +1025,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1057,10 +1054,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1086,10 +1083,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1115,10 +1112,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1144,10 +1141,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
         <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
       </c>
       <c r="G22" t="n">
         <v>9</v>
@@ -1173,10 +1170,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" t="s">
         <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>44</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1202,10 +1199,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
         <v>45</v>
-      </c>
-      <c r="F24" t="s">
-        <v>46</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1231,10 +1228,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
         <v>47</v>
-      </c>
-      <c r="F25" t="s">
-        <v>48</v>
       </c>
       <c r="G25" t="n">
         <v>5</v>
@@ -1260,10 +1257,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
         <v>49</v>
-      </c>
-      <c r="F26" t="s">
-        <v>50</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
